--- a/일용직 지명원_add.xlsx
+++ b/일용직 지명원_add.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="정리시트" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3857,7 +3858,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
@@ -6354,7 +6355,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -7156,9 +7157,8 @@
           <t>840105-1822423</t>
         </is>
       </c>
-      <c r="D180">
-        <f>IFERROR(YEAR(TODAY())-YEAR(#REF!),"민증없음")</f>
-        <v/>
+      <c r="D180" t="n">
+        <v>40</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7184,4 +7184,22 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>